--- a/UV_resin/resinPDB/resin.xlsx
+++ b/UV_resin/resinPDB/resin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\suehara\job\UV_resin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\suehara\job\data_driven\UV_resin\resinPDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB7B27C-0443-4E4C-B65D-5BF0FB4C7C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD21A03-F5EF-4919-A343-E577F3B1959B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5897" yWindow="3789" windowWidth="24694" windowHeight="13662" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22980" yWindow="1350" windowWidth="24690" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -35,15 +35,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ClC=C</t>
-  </si>
-  <si>
-    <t>ClC(=C)Cl</t>
-  </si>
-  <si>
-    <t>Poly(vinylidene chloride)</t>
-  </si>
-  <si>
     <t>ED-523T</t>
   </si>
   <si>
@@ -114,10 +105,6 @@
   </si>
   <si>
     <t>XY633</t>
-  </si>
-  <si>
-    <t>Poly(vinyl chloride)</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>O=C(OCC1CCC2C(O2)C1)C3CCC4C(O4)C3</t>
@@ -457,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45"/>
@@ -475,23 +462,23 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -499,7 +486,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -515,58 +502,58 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1750</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -581,24 +568,8 @@
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/UV_resin/resinPDB/resin.xlsx
+++ b/UV_resin/resinPDB/resin.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\suehara\job\data_driven\UV_resin\resinPDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD21A03-F5EF-4919-A343-E577F3B1959B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC94C8A-C23A-44F0-8B97-A5500D865A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22980" yWindow="1350" windowWidth="24690" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -65,57 +65,83 @@
     <t>C=O.C1C(O1)CCl.C1=CC=C(C=C1)O</t>
   </si>
   <si>
+    <t>CCC1(COCC2=CC=CC=C2)COC1</t>
+  </si>
+  <si>
+    <t>TCM104</t>
+  </si>
+  <si>
+    <t>CCC1(COC1)COC(C(C)=C)=O</t>
+  </si>
+  <si>
+    <t>THM202</t>
+  </si>
+  <si>
+    <t>C1(OCC2CO2)=CC=CC=C1</t>
+  </si>
+  <si>
+    <t>EX141</t>
+  </si>
+  <si>
+    <t>CCC1(COC1)COC(C=C)=O</t>
+  </si>
+  <si>
+    <t>EX201</t>
+  </si>
+  <si>
+    <t>C1(OCC2OC2)=CC=C(CC3=CC=C(OCC4OC4)C=C3)C=C1</t>
+  </si>
+  <si>
+    <t>C1(COCC2CO2)CCC(COCC3OC3)CC1</t>
+  </si>
+  <si>
+    <t>XY630</t>
+  </si>
+  <si>
+    <t>C1(CO1)COCC(OCC2OC2)COCC3OC3</t>
+  </si>
+  <si>
+    <t>XY633</t>
+  </si>
+  <si>
+    <t>O=C(OCC1CCC2C(O2)C1)C3CCC4C(O4)C3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CC(COCC1OC1)(C)COCC2OC2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[C@H]1(COCC2CO2)C[C@@H]3[C@H]4[C@H](CC(COCC5OC5)C4)[C@H]1C3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>JER152</t>
-  </si>
-  <si>
-    <t>CCC1(COCC2=CC=CC=C2)COC1</t>
-  </si>
-  <si>
-    <t>TCM104</t>
-  </si>
-  <si>
-    <t>CCC1(COC1)COC(C(C)=C)=O</t>
-  </si>
-  <si>
-    <t>THM202</t>
-  </si>
-  <si>
-    <t>C1(OCC2CO2)=CC=CC=C1</t>
-  </si>
-  <si>
-    <t>EX141</t>
-  </si>
-  <si>
-    <t>CCC1(COC1)COC(C=C)=O</t>
-  </si>
-  <si>
-    <t>EX201</t>
-  </si>
-  <si>
-    <t>C1(OCC2OC2)=CC=C(CC3=CC=C(OCC4OC4)C=C3)C=C1</t>
-  </si>
-  <si>
-    <t>C1(COCC2CO2)CCC(COCC3OC3)CC1</t>
-  </si>
-  <si>
-    <t>XY630</t>
-  </si>
-  <si>
-    <t>C1(CO1)COCC(OCC2OC2)COCC3OC3</t>
-  </si>
-  <si>
-    <t>XY633</t>
-  </si>
-  <si>
-    <t>O=C(OCC1CCC2C(O2)C1)C3CCC4C(O4)C3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CC(COCC1OC1)(C)COCC2OC2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[C@H]1(COCC2CO2)C[C@@H]3[C@H]4[C@H](CC(COCC5OC5)C4)[C@H]1C3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めんどくさそう・・・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実測データなし？</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二重結合問題</t>
+    <rPh sb="0" eb="4">
+      <t>ニジュウケツゴウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モンダイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -444,15 +470,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45"/>
+  <cols>
+    <col min="1" max="1" width="70.92578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -460,39 +489,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -500,76 +541,82 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="B13" s="1">
         <v>1750</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/UV_resin/resinPDB/resin.xlsx
+++ b/UV_resin/resinPDB/resin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\suehara\job\data_driven\UV_resin\resinPDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC94C8A-C23A-44F0-8B97-A5500D865A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917135A3-B14B-4F13-92E0-2507C178BF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -121,17 +121,6 @@
   </si>
   <si>
     <t>o</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>めんどくさそう・・・</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実測データなし？</t>
-    <rPh sb="0" eb="2">
-      <t>ジッソク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -142,6 +131,66 @@
     <rPh sb="4" eb="6">
       <t>モンダイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無理</t>
+    <rPh sb="0" eb="2">
+      <t>ムリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二重結合問題</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たぶん環状構造があると，mol2ファイルからsmilesに変換したときにラジカル認定されるから厳しいっぽい</t>
+    <rPh sb="3" eb="5">
+      <t>カンジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ニンテイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>キビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実測データ無いので後回し</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>アトマワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二つ反応パターンを記述しなきゃいけないやつ</t>
+    <rPh sb="0" eb="1">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -473,7 +522,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45"/>
@@ -488,6 +537,9 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
@@ -530,7 +582,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -540,6 +592,9 @@
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
@@ -549,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -559,6 +614,9 @@
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
@@ -567,6 +625,9 @@
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
@@ -576,7 +637,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -586,6 +647,9 @@
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
@@ -594,6 +658,9 @@
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
@@ -602,6 +669,9 @@
       <c r="B13" s="1">
         <v>1750</v>
       </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -610,6 +680,9 @@
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
@@ -617,6 +690,9 @@
       </c>
       <c r="B15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/UV_resin/resinPDB/resin.xlsx
+++ b/UV_resin/resinPDB/resin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\suehara\job\data_driven\UV_resin\resinPDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917135A3-B14B-4F13-92E0-2507C178BF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317D0103-0667-4163-A9C6-F8AC3AE34293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -41,18 +41,12 @@
     <t>EP-4088S</t>
   </si>
   <si>
-    <t>CCC1(COCC2(CC)COC2)COC1</t>
-  </si>
-  <si>
     <t>OXT-221</t>
   </si>
   <si>
     <t>CEL2021P</t>
   </si>
   <si>
-    <t>CCCCC(CC)COCC1OC1</t>
-  </si>
-  <si>
     <t>EX-121</t>
   </si>
   <si>
@@ -65,40 +59,19 @@
     <t>C=O.C1C(O1)CCl.C1=CC=C(C=C1)O</t>
   </si>
   <si>
-    <t>CCC1(COCC2=CC=CC=C2)COC1</t>
-  </si>
-  <si>
     <t>TCM104</t>
   </si>
   <si>
-    <t>CCC1(COC1)COC(C(C)=C)=O</t>
-  </si>
-  <si>
     <t>THM202</t>
   </si>
   <si>
-    <t>C1(OCC2CO2)=CC=CC=C1</t>
-  </si>
-  <si>
     <t>EX141</t>
   </si>
   <si>
-    <t>CCC1(COC1)COC(C=C)=O</t>
-  </si>
-  <si>
     <t>EX201</t>
   </si>
   <si>
-    <t>C1(OCC2OC2)=CC=C(CC3=CC=C(OCC4OC4)C=C3)C=C1</t>
-  </si>
-  <si>
-    <t>C1(COCC2CO2)CCC(COCC3OC3)CC1</t>
-  </si>
-  <si>
     <t>XY630</t>
-  </si>
-  <si>
-    <t>C1(CO1)COCC(OCC2OC2)COCC3OC3</t>
   </si>
   <si>
     <t>XY633</t>
@@ -191,6 +164,50 @@
   </si>
   <si>
     <t>メモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CCC1(COCC2(CC)COC2)COC1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opls</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CCCCC(CC)COCC1OC1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CCC1(COCC2=CC=CC=C2)COC1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C1(OCC2CO2)=CC=CC=C1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CCC1(COC1)COC(C(C)=C)=O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CCC1(COC1)COC(C=C)=O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C1(OCC2OC2)=CC=C(CC3=CC=C(OCC4OC4)C=C3)C=C1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C1(COCC2CO2)CCC(COCC3OC3)CC1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C1(CO1)COCC(OCC2OC2)COCC3OC3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The net charge appears to be non-zero!</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -519,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45"/>
@@ -530,7 +547,7 @@
     <col min="1" max="1" width="70.92578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -538,161 +555,200 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="B13" s="1">
         <v>1750</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
